--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0006204260720921537</v>
+        <v>5.906118310345425E-06</v>
       </c>
       <c r="E2">
-        <v>0.0006204260720921537</v>
+        <v>5.906118310345425E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999956936938</v>
+        <v>0.9999999945753031</v>
       </c>
       <c r="E3">
-        <v>0.9999999956936938</v>
+        <v>0.9999999945753031</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.8995684185949959</v>
+        <v>0.1085728188178906</v>
       </c>
       <c r="E4">
-        <v>0.8995684185949959</v>
+        <v>0.1085728188178906</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4.744545931438899E-26</v>
+        <v>3.785093707568907E-37</v>
       </c>
       <c r="E5">
-        <v>4.744545931438899E-26</v>
+        <v>3.785093707568907E-37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1925008885128394</v>
+        <v>0.002049544324786162</v>
       </c>
       <c r="E6">
-        <v>0.1925008885128394</v>
+        <v>0.002049544324786162</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999983746529747</v>
+        <v>0.9999999992763677</v>
       </c>
       <c r="E7">
-        <v>1.625347025302482E-06</v>
+        <v>7.236322652204308E-10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999952995862</v>
+        <v>0.9990833781283756</v>
       </c>
       <c r="E8">
-        <v>4.700413835934114E-09</v>
+        <v>0.0009166218716244456</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999542979</v>
+        <v>0.9999999999998532</v>
       </c>
       <c r="E9">
-        <v>4.570210876408964E-11</v>
+        <v>1.467714838554457E-13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9992318490207923</v>
+        <v>0.9998675295770668</v>
       </c>
       <c r="E10">
-        <v>0.0007681509792076824</v>
+        <v>0.0001324704229331841</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9999999987548187</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.245181291409381E-09</v>
       </c>
       <c r="F11">
-        <v>2.177667140960693</v>
+        <v>1.915034532546997</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
